--- a/pcb/sram/pins.xlsx
+++ b/pcb/sram/pins.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C07B66FE-38BC-4B7C-AAA4-C7B9B5FDAA31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EED2F4D2-BF54-487A-8397-69B16B7FD045}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8340" windowHeight="9690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="363">
   <si>
     <t>VCC_MOD</t>
   </si>
@@ -869,6 +870,246 @@
   </si>
   <si>
     <t>ZX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not connected H2 G2 FMC_CLK1_M2C_P </t>
+  </si>
+  <si>
+    <t>GND H3 G3 FMC_CLK1_M2C_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_CLK0_M2C_P H4 G4 GND </t>
+  </si>
+  <si>
+    <t>FMC_CLK0_M2C_N H5 G5 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND H6 G6 FMC_LA00_CC_P </t>
+  </si>
+  <si>
+    <t>FMC_LA02_P H7 G7 FMC_LA00_CC_N</t>
+  </si>
+  <si>
+    <t>FMC_LA02_N H8 G8 GN</t>
+  </si>
+  <si>
+    <t>GND H9 G9 FMC_LA03_P FX3_DQ28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA04_P H10 G10 FMC_LA03_N FX3_DQ29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA04_N H11 G11 GND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND H12 G12 FMC_LA08_P FX3_DQ21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA07_P H13 G13 FMC_LA08_N FX3_DQ22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA07_N H14 G14 GND </t>
+  </si>
+  <si>
+    <t>GND H15 G15 FMC_LA12_P FX3_DQ20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA11_P H16 G16 FMC_LA12_N FX3_DQ17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA11_N H17 G17 GND </t>
+  </si>
+  <si>
+    <t>GND H18 G18 FMC_LA16_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA15_P H19 G19 FMC_LA16_N </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA15_N H20 G20 GND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND H21 G21 FMC_LA20_P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA19_P H22 G22 FMC_LA20_N </t>
+  </si>
+  <si>
+    <t>FMC_LA19_N H23 G23 GND</t>
+  </si>
+  <si>
+    <t>GND H24 G24 FMC_LA22_P</t>
+  </si>
+  <si>
+    <t>FMC_LA21_P H25 G25 FMC_LA22_N</t>
+  </si>
+  <si>
+    <t>FMC_LA21_N H26 G26 GND</t>
+  </si>
+  <si>
+    <t>GND H27 G27 FMC_LA25_P</t>
+  </si>
+  <si>
+    <t>FMC_LA24_P H28 G28 FMC_LA25_N</t>
+  </si>
+  <si>
+    <t>FMC_LA24_N H29 G29 GND</t>
+  </si>
+  <si>
+    <t>GND H30 G30 FMC_LA29_P</t>
+  </si>
+  <si>
+    <t>FMC_LA28_P H31 G31 FMC_LA29_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA28_N H32 G32 GND </t>
+  </si>
+  <si>
+    <t>GND H33 G33 FMC_LA31_P</t>
+  </si>
+  <si>
+    <t>FMC_LA30_P H34 G34 FMC_LA31_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA30_N H35 G35 GND </t>
+  </si>
+  <si>
+    <t>GND H36 G36 FMC_LA33_P</t>
+  </si>
+  <si>
+    <t>FMC_LA32_P H37 G37 FMC_LA33_N</t>
+  </si>
+  <si>
+    <t>FMC_LA32_N H38 G38 GND</t>
+  </si>
+  <si>
+    <t>GND H39 G39 VCC_IO</t>
+  </si>
+  <si>
+    <t>VCC_IO H40 G40 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGOOD_SYSTEM D1 C1 GND </t>
+  </si>
+  <si>
+    <t>GND D2 C2 Not Connected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND D3 C3 Not Connected </t>
+  </si>
+  <si>
+    <t>Not Connected D4 C4 GND</t>
+  </si>
+  <si>
+    <t>Not Connected D5 C5 GN</t>
+  </si>
+  <si>
+    <t>Not connected H1 G1 GND</t>
+  </si>
+  <si>
+    <t>GND D6 C6 Not Connected</t>
+  </si>
+  <si>
+    <t>GND D7 C7 Not Connected</t>
+  </si>
+  <si>
+    <t>FX3_DQ31 FMC_LA01_CC_P D8 C8 GND</t>
+  </si>
+  <si>
+    <t>FX3_DQ30 FMC_LA01_CC_N D9 C9 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND D10 C10 FMC_LA06_P FX3_DQ24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FX3_DQ25 FMC_LA05_P D11 C11 FMC_LA06_N FX3_DQ27 </t>
+  </si>
+  <si>
+    <t>FX3_DQ26 FMC_LA05_N D12 C12 GND</t>
+  </si>
+  <si>
+    <t>GND D13 C13 GND</t>
+  </si>
+  <si>
+    <t>FX3_DQ18 FMC_LA09_P D14 C14 FMC_LA10_P FX3_DQ19</t>
+  </si>
+  <si>
+    <t>FX3_DQ16 FMC_LA09_N D15 C15 FMC_LA10_N FX3_DQ23</t>
+  </si>
+  <si>
+    <t>GND D16 C16 GND</t>
+  </si>
+  <si>
+    <t>FMC_LA13_P D17 C17 GND</t>
+  </si>
+  <si>
+    <t>FMC_LA13_N D18 C18 FMC_LA14_P</t>
+  </si>
+  <si>
+    <t>GND D19 C19 FMC_LA14_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA17_CC_P D20 C20 GND </t>
+  </si>
+  <si>
+    <t>FMC_LA17_CC_N D21 C21 GND</t>
+  </si>
+  <si>
+    <t>GND D22 C22 FMC_LA18_CC_P</t>
+  </si>
+  <si>
+    <t>FMC_LA23_P D23 C23 FMC_LA18_CC_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA23_N D24 C24 GND </t>
+  </si>
+  <si>
+    <t>GND D25 C25 GND</t>
+  </si>
+  <si>
+    <t>FMC_LA26_P D26 C26 FMC_LA27_P</t>
+  </si>
+  <si>
+    <t>FMC_LA26_N D27 C27 FMC_LA27_N</t>
+  </si>
+  <si>
+    <t>GND D28 C28 GND</t>
+  </si>
+  <si>
+    <t>10k to VCC_3V3 D29 C29 GND</t>
+  </si>
+  <si>
+    <t>10k to VCC_3V3 D30 C30 FMC_I2C_SCL</t>
+  </si>
+  <si>
+    <t>Not Connected D31 C31 FMC_I2C_SDA</t>
+  </si>
+  <si>
+    <t>VCC_3V3 D32 C32 GND</t>
+  </si>
+  <si>
+    <t>10k to VCC_3V3 D33 C33 GND</t>
+  </si>
+  <si>
+    <t>10k to GND D34 C34 10k to GND</t>
+  </si>
+  <si>
+    <t>10k to VCC_3V3 D35 C35 VCC_12V</t>
+  </si>
+  <si>
+    <t>VCC_3V3 D36 C36 GND</t>
+  </si>
+  <si>
+    <t>GND D37 C37 VCC_12V</t>
+  </si>
+  <si>
+    <t>VCC_3V3 D38 C38 GND</t>
+  </si>
+  <si>
+    <t>GND D39 C39 VCC_3V3</t>
+  </si>
+  <si>
+    <t>VCC_3V3 D40 C40 GND</t>
   </si>
 </sst>
 </file>
@@ -1002,15 +1243,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1023,21 +1255,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{11644EA9-A3A3-41ED-B8A1-E6710BE1DB6F}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1219,132 +1460,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCFE5FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7F2FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE5FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE7F2FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE5FF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4D4D4D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF333333"/>
         </patternFill>
       </fill>
       <border>
@@ -1634,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1668,7 +1783,7 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1688,13 +1803,13 @@
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>4</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1708,13 +1823,13 @@
       <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>6</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1728,7 +1843,7 @@
       <c r="E7" s="3">
         <v>7</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>8</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1748,13 +1863,13 @@
       <c r="E8" s="3">
         <v>9</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>10</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1768,13 +1883,13 @@
       <c r="E9" s="3">
         <v>11</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <v>12</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>220</v>
       </c>
     </row>
@@ -1788,7 +1903,7 @@
       <c r="E10" s="3">
         <v>13</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="14">
         <v>14</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1808,7 +1923,7 @@
       <c r="E11" s="3">
         <v>15</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="14">
         <v>16</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1828,7 +1943,7 @@
       <c r="E12" s="3">
         <v>17</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="14">
         <v>18</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1848,7 +1963,7 @@
       <c r="E13" s="3">
         <v>19</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1868,7 +1983,7 @@
       <c r="E14" s="3">
         <v>21</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="14">
         <v>22</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1888,7 +2003,7 @@
       <c r="E15" s="3">
         <v>23</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="14">
         <v>24</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -1908,7 +2023,7 @@
       <c r="E16" s="3">
         <v>25</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <v>26</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -1928,7 +2043,7 @@
       <c r="E17" s="3">
         <v>27</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <v>28</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1948,7 +2063,7 @@
       <c r="E18" s="3">
         <v>29</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <v>30</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -1968,7 +2083,7 @@
       <c r="E19" s="3">
         <v>31</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="14">
         <v>32</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -1988,7 +2103,7 @@
       <c r="E20" s="3">
         <v>33</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="14">
         <v>34</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -2008,7 +2123,7 @@
       <c r="E21" s="3">
         <v>35</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="14">
         <v>36</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -2028,7 +2143,7 @@
       <c r="E22" s="3">
         <v>37</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="14">
         <v>38</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -2048,7 +2163,7 @@
       <c r="E23" s="3">
         <v>39</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="14">
         <v>40</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -2059,39 +2174,39 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="18"/>
-      <c r="H24" s="20" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="H24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="18"/>
-      <c r="H25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="H25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="18"/>
-      <c r="H26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="A26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="H26" s="16"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2100,10 +2215,10 @@
       <c r="E27" s="3">
         <v>41</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="14">
         <v>42</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -2111,7 +2226,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2120,7 +2235,7 @@
       <c r="E28" s="3">
         <v>43</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="14">
         <v>44</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -2131,7 +2246,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2140,7 +2255,7 @@
       <c r="E29" s="3">
         <v>45</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="14">
         <v>46</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -2160,7 +2275,7 @@
       <c r="E30" s="3">
         <v>47</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="14">
         <v>48</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -2171,7 +2286,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2180,7 +2295,7 @@
       <c r="E31" s="3">
         <v>49</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="14">
         <v>50</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -2191,7 +2306,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2200,7 +2315,7 @@
       <c r="E32" s="3">
         <v>51</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="14">
         <v>52</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -2220,7 +2335,7 @@
       <c r="E33" s="3">
         <v>53</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="14">
         <v>54</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -2240,7 +2355,7 @@
       <c r="E34" s="3">
         <v>55</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="14">
         <v>56</v>
       </c>
       <c r="H34" s="6" t="s">
@@ -2260,7 +2375,7 @@
       <c r="E35" s="3">
         <v>57</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="14">
         <v>58</v>
       </c>
       <c r="H35" s="6" t="s">
@@ -2280,7 +2395,7 @@
       <c r="E36" s="3">
         <v>59</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="14">
         <v>60</v>
       </c>
       <c r="H36" s="6" t="s">
@@ -2300,7 +2415,7 @@
       <c r="E37" s="3">
         <v>61</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="14">
         <v>62</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -2320,7 +2435,7 @@
       <c r="E38" s="3">
         <v>63</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="14">
         <v>64</v>
       </c>
       <c r="H38" s="6" t="s">
@@ -2340,7 +2455,7 @@
       <c r="E39" s="3">
         <v>65</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="14">
         <v>66</v>
       </c>
       <c r="H39" s="6" t="s">
@@ -2360,7 +2475,7 @@
       <c r="E40" s="3">
         <v>67</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="14">
         <v>68</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -2380,7 +2495,7 @@
       <c r="E41" s="3">
         <v>69</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="14">
         <v>70</v>
       </c>
       <c r="H41" s="6" t="s">
@@ -2400,7 +2515,7 @@
       <c r="E42" s="3">
         <v>71</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <v>72</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -2420,7 +2535,7 @@
       <c r="E43" s="3">
         <v>73</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="14">
         <v>74</v>
       </c>
       <c r="H43" s="6" t="s">
@@ -2440,7 +2555,7 @@
       <c r="E44" s="3">
         <v>75</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="14">
         <v>76</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -2460,7 +2575,7 @@
       <c r="E45" s="3">
         <v>77</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="14">
         <v>78</v>
       </c>
       <c r="H45" s="6" t="s">
@@ -2480,7 +2595,7 @@
       <c r="E46" s="3">
         <v>79</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="14">
         <v>80</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -2500,7 +2615,7 @@
       <c r="E47" s="3">
         <v>81</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="14">
         <v>82</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -2520,7 +2635,7 @@
       <c r="E48" s="3">
         <v>83</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="14">
         <v>84</v>
       </c>
       <c r="H48" s="6" t="s">
@@ -2531,16 +2646,16 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E49" s="3">
         <v>85</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="14">
         <v>86</v>
       </c>
       <c r="H49" s="6" t="s">
@@ -2551,16 +2666,16 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="3">
         <v>87</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="14">
         <v>88</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -2571,7 +2686,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2580,7 +2695,7 @@
       <c r="E51" s="3">
         <v>89</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="14">
         <v>90</v>
       </c>
       <c r="H51" s="6" t="s">
@@ -2600,7 +2715,7 @@
       <c r="E52" s="3">
         <v>91</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="14">
         <v>92</v>
       </c>
       <c r="H52" s="6" t="s">
@@ -2620,10 +2735,10 @@
       <c r="E53" s="3">
         <v>93</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="14">
         <v>94</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -2640,7 +2755,7 @@
       <c r="E54" s="3">
         <v>95</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="14">
         <v>96</v>
       </c>
       <c r="H54" s="6" t="s">
@@ -2660,7 +2775,7 @@
       <c r="E55" s="3">
         <v>97</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="14">
         <v>98</v>
       </c>
       <c r="H55" s="6" t="s">
@@ -2680,7 +2795,7 @@
       <c r="E56" s="3">
         <v>99</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="14">
         <v>100</v>
       </c>
       <c r="H56" s="5" t="s">
@@ -2691,7 +2806,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2700,7 +2815,7 @@
       <c r="E57" s="3">
         <v>101</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="14">
         <v>102</v>
       </c>
       <c r="H57" s="6" t="s">
@@ -2711,16 +2826,16 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E58" s="3">
         <v>103</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="14">
         <v>104</v>
       </c>
       <c r="H58" s="6" t="s">
@@ -2731,19 +2846,19 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E59" s="3">
         <v>105</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="14">
         <v>106</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -2760,7 +2875,7 @@
       <c r="E60" s="3">
         <v>107</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="14">
         <v>108</v>
       </c>
       <c r="H60" s="6" t="s">
@@ -2780,7 +2895,7 @@
       <c r="E61" s="3">
         <v>109</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="14">
         <v>110</v>
       </c>
       <c r="H61" s="6" t="s">
@@ -2800,13 +2915,13 @@
       <c r="E62" s="3">
         <v>111</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="14">
         <v>112</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="8" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2820,13 +2935,13 @@
       <c r="E63" s="3">
         <v>113</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="14">
         <v>114</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="H63" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="8" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2840,7 +2955,7 @@
       <c r="E64" s="3">
         <v>115</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="14">
         <v>116</v>
       </c>
       <c r="H64" s="5" t="s">
@@ -2860,7 +2975,7 @@
       <c r="E65" s="3">
         <v>117</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="14">
         <v>118</v>
       </c>
       <c r="H65" s="6" t="s">
@@ -2880,7 +2995,7 @@
       <c r="E66" s="3">
         <v>119</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="14">
         <v>120</v>
       </c>
       <c r="H66" s="6" t="s">
@@ -2900,7 +3015,7 @@
       <c r="E67" s="3">
         <v>121</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="14">
         <v>122</v>
       </c>
       <c r="H67" s="6" t="s">
@@ -2920,7 +3035,7 @@
       <c r="E68" s="3">
         <v>123</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="14">
         <v>124</v>
       </c>
       <c r="H68" s="6" t="s">
@@ -2940,7 +3055,7 @@
       <c r="E69" s="3">
         <v>125</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="14">
         <v>126</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -2960,10 +3075,10 @@
       <c r="E70" s="3">
         <v>127</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="14">
         <v>128</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="8" t="s">
         <v>185</v>
       </c>
       <c r="J70" s="6" t="s">
@@ -2980,10 +3095,10 @@
       <c r="E71" s="3">
         <v>129</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="14">
         <v>130</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="H71" s="8" t="s">
         <v>186</v>
       </c>
       <c r="J71" s="6" t="s">
@@ -3000,7 +3115,7 @@
       <c r="E72" s="3">
         <v>131</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="14">
         <v>132</v>
       </c>
       <c r="H72" s="6" t="s">
@@ -3020,7 +3135,7 @@
       <c r="E73" s="3">
         <v>133</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="14">
         <v>134</v>
       </c>
       <c r="H73" s="6" t="s">
@@ -3040,7 +3155,7 @@
       <c r="E74" s="3">
         <v>135</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="14">
         <v>136</v>
       </c>
       <c r="H74" s="5" t="s">
@@ -3060,7 +3175,7 @@
       <c r="E75" s="3">
         <v>137</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="14">
         <v>138</v>
       </c>
       <c r="H75" s="6" t="s">
@@ -3080,7 +3195,7 @@
       <c r="E76" s="3">
         <v>139</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="14">
         <v>140</v>
       </c>
       <c r="H76" s="6" t="s">
@@ -3100,7 +3215,7 @@
       <c r="E77" s="3">
         <v>141</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="14">
         <v>142</v>
       </c>
       <c r="H77" s="6" t="s">
@@ -3120,7 +3235,7 @@
       <c r="E78" s="3">
         <v>143</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="14">
         <v>144</v>
       </c>
       <c r="H78" s="6" t="s">
@@ -3140,7 +3255,7 @@
       <c r="E79" s="3">
         <v>145</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="14">
         <v>146</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -3160,7 +3275,7 @@
       <c r="E80" s="3">
         <v>147</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="14">
         <v>148</v>
       </c>
       <c r="H80" s="4" t="s">
@@ -3180,7 +3295,7 @@
       <c r="E81" s="3">
         <v>149</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="14">
         <v>150</v>
       </c>
       <c r="H81" s="4" t="s">
@@ -3200,7 +3315,7 @@
       <c r="E82" s="3">
         <v>151</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="14">
         <v>152</v>
       </c>
       <c r="H82" s="4" t="s">
@@ -3220,7 +3335,7 @@
       <c r="E83" s="3">
         <v>153</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="14">
         <v>154</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -3240,7 +3355,7 @@
       <c r="E84" s="3">
         <v>155</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="14">
         <v>156</v>
       </c>
       <c r="H84" s="5" t="s">
@@ -3260,7 +3375,7 @@
       <c r="E85" s="3">
         <v>157</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="14">
         <v>158</v>
       </c>
       <c r="H85" s="4" t="s">
@@ -3280,7 +3395,7 @@
       <c r="E86" s="3">
         <v>159</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="14">
         <v>160</v>
       </c>
       <c r="H86" s="4" t="s">
@@ -3300,7 +3415,7 @@
       <c r="E87" s="3">
         <v>161</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="14">
         <v>162</v>
       </c>
       <c r="H87" s="4" t="s">
@@ -3320,7 +3435,7 @@
       <c r="E88" s="3">
         <v>163</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="14">
         <v>164</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -3340,7 +3455,7 @@
       <c r="E89" s="3">
         <v>165</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="14">
         <v>166</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -3360,7 +3475,7 @@
       <c r="E90" s="3">
         <v>167</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="14">
         <v>168</v>
       </c>
       <c r="H90" s="4" t="s">
@@ -3380,7 +3495,7 @@
       <c r="E91" s="3">
         <v>169</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="14">
         <v>170</v>
       </c>
       <c r="H91" s="4" t="s">
@@ -3400,7 +3515,7 @@
       <c r="E92" s="3">
         <v>171</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="14">
         <v>172</v>
       </c>
       <c r="H92" s="5" t="s">
@@ -3420,7 +3535,7 @@
       <c r="E93" s="3">
         <v>173</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="14">
         <v>174</v>
       </c>
       <c r="H93" s="4" t="s">
@@ -3440,7 +3555,7 @@
       <c r="E94" s="3">
         <v>175</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="14">
         <v>176</v>
       </c>
       <c r="H94" s="4" t="s">
@@ -3460,7 +3575,7 @@
       <c r="E95" s="3">
         <v>177</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="14">
         <v>178</v>
       </c>
       <c r="H95" s="4" t="s">
@@ -3480,7 +3595,7 @@
       <c r="E96" s="3">
         <v>179</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="14">
         <v>180</v>
       </c>
       <c r="H96" s="5" t="s">
@@ -3500,7 +3615,7 @@
       <c r="E97" s="3">
         <v>181</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F97" s="14">
         <v>182</v>
       </c>
       <c r="H97" s="4" t="s">
@@ -3520,7 +3635,7 @@
       <c r="E98" s="3">
         <v>183</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="14">
         <v>184</v>
       </c>
       <c r="H98" s="4" t="s">
@@ -3540,7 +3655,7 @@
       <c r="E99" s="3">
         <v>185</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="14">
         <v>186</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -3554,13 +3669,13 @@
       <c r="A100" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="11">
         <v>187</v>
       </c>
-      <c r="F100" s="19">
+      <c r="F100" s="15">
         <v>188</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -3574,13 +3689,13 @@
       <c r="A101" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E101" s="11">
         <v>189</v>
       </c>
-      <c r="F101" s="19">
+      <c r="F101" s="15">
         <v>190</v>
       </c>
       <c r="H101" s="6" t="s">
@@ -3594,13 +3709,13 @@
       <c r="A102" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102" s="11">
         <v>191</v>
       </c>
-      <c r="F102" s="19">
+      <c r="F102" s="15">
         <v>192</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -3614,13 +3729,13 @@
       <c r="A103" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="11">
         <v>193</v>
       </c>
-      <c r="F103" s="19">
+      <c r="F103" s="15">
         <v>194</v>
       </c>
       <c r="H103" s="4" t="s">
@@ -3634,13 +3749,13 @@
       <c r="A104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="14">
+      <c r="C104" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="11">
         <v>195</v>
       </c>
-      <c r="F104" s="19">
+      <c r="F104" s="15">
         <v>196</v>
       </c>
       <c r="H104" s="4" t="s">
@@ -3654,13 +3769,13 @@
       <c r="A105" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="11">
         <v>197</v>
       </c>
-      <c r="F105" s="19">
+      <c r="F105" s="15">
         <v>198</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -3671,22 +3786,22 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106" s="11">
         <v>199</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="15">
         <v>200</v>
       </c>
-      <c r="H106" s="16" t="s">
+      <c r="H106" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="J106" s="16" t="s">
+      <c r="J106" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3749,4 +3864,339 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CA981F-FBCE-45DB-BF00-EDE70AC0A6E9}">
+  <dimension ref="D6:M45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+      <c r="M9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="M10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>291</v>
+      </c>
+      <c r="M15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>294</v>
+      </c>
+      <c r="M18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>295</v>
+      </c>
+      <c r="L19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>296</v>
+      </c>
+      <c r="L20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>297</v>
+      </c>
+      <c r="M21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>298</v>
+      </c>
+      <c r="M22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>299</v>
+      </c>
+      <c r="M23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+      <c r="M24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+      <c r="M25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>302</v>
+      </c>
+      <c r="M26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>303</v>
+      </c>
+      <c r="M27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>304</v>
+      </c>
+      <c r="M28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>305</v>
+      </c>
+      <c r="M29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>306</v>
+      </c>
+      <c r="M30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>307</v>
+      </c>
+      <c r="M31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>309</v>
+      </c>
+      <c r="M33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>310</v>
+      </c>
+      <c r="M34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>314</v>
+      </c>
+      <c r="M38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>317</v>
+      </c>
+      <c r="M41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>319</v>
+      </c>
+      <c r="M43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>320</v>
+      </c>
+      <c r="M44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pcb/sram/pins.xlsx
+++ b/pcb/sram/pins.xlsx
@@ -896,25 +896,25 @@
     <t xml:space="preserve">FMC_CLK1_M2C_P </t>
   </si>
   <si>
-    <t xml:space="preserve">GND D2 C2 Not Connected</t>
+    <t xml:space="preserve">GND                     D2 C2 Not Connected</t>
   </si>
   <si>
     <t xml:space="preserve">GND                          H3 G3 FMC_CLK1_M2C_N</t>
   </si>
   <si>
-    <t xml:space="preserve">GND D3 C3 Not Connected </t>
+    <t xml:space="preserve">GND                     D3 C3 Not Connected </t>
   </si>
   <si>
     <t xml:space="preserve">FMC_CLK0_M2C_P H4 G4 GND </t>
   </si>
   <si>
-    <t xml:space="preserve">Not Connected D4 C4 GND</t>
+    <t xml:space="preserve">Not Connected  D4 C4 GND</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_CLK0_M2C_N H5 G5 GND</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Connected D5 C5 GN</t>
+    <t xml:space="preserve">Not Connected   D5 C5 GN</t>
   </si>
   <si>
     <t xml:space="preserve">GND                          H6 G6 FMC_LA00_CC_P </t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">FMC_LA00_CC_P </t>
   </si>
   <si>
-    <t xml:space="preserve">GND D6 C6 Not Connected</t>
+    <t xml:space="preserve">GND                    D6 C6 Not Connected</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA02_P          H7 G7 FMC_LA00_CC_N</t>
   </si>
   <si>
-    <t xml:space="preserve">GND D7 C7 Not Connected</t>
+    <t xml:space="preserve">GND                    D7 C7 Not Connected</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA02_N          H8 G8 GN</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">FX3_DQ29</t>
   </si>
   <si>
-    <t xml:space="preserve">GND D10 C10 FMC_LA06_P FX3_DQ24 </t>
+    <t xml:space="preserve">GND                    D10 C10 FMC_LA06_P FX3_DQ24 </t>
   </si>
   <si>
     <t xml:space="preserve">FX3_DQ24 </t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">FX3_DQ22</t>
   </si>
   <si>
-    <t xml:space="preserve">GND D13 C13 GND</t>
+    <t xml:space="preserve">GND                      D13 C13 GND</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA07_N      H14 G14 GND </t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">FX3_DQ17 </t>
   </si>
   <si>
-    <t xml:space="preserve">GND D16 C16 GND</t>
+    <t xml:space="preserve">GND                      D16 C16 GND</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA11_N    H17 G17 GND </t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA13_P D17 C17 GND</t>
+    <t xml:space="preserve">FMC_LA13_P       D17 C17 GND</t>
   </si>
   <si>
     <t xml:space="preserve">GND                    H18 G18 FMC_LA16_P</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve"> FMC_LA16_P</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA13_N D18 C18 FMC_LA14_P</t>
+    <t xml:space="preserve">FMC_LA13_N       D18 C18 FMC_LA14_P</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA15_P     H19 G19 FMC_LA16_N </t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">FMC_LA16_N </t>
   </si>
   <si>
-    <t xml:space="preserve">GND D19 C19 FMC_LA14_N</t>
+    <t xml:space="preserve">GND                       D19 C19 FMC_LA14_N</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA15_N    H20 G20 GND </t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">FMC_LA20_N </t>
   </si>
   <si>
-    <t xml:space="preserve">GND D22 C22 FMC_LA18_CC_P</t>
+    <t xml:space="preserve">GND                       D22 C22 FMC_LA18_CC_P</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA19_N    H23 G23 GND</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA23_P D23 C23 FMC_LA18_CC_N</t>
+    <t xml:space="preserve">FMC_LA23_P       D23 C23 FMC_LA18_CC_N</t>
   </si>
   <si>
     <t xml:space="preserve">GND                    H24 G24 FMC_LA22_P</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA23_N D24 C24 GND </t>
+    <t xml:space="preserve">FMC_LA23_N      D24 C24 GND </t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA21_P    H25 G25 FMC_LA22_N</t>
@@ -1100,37 +1100,37 @@
     <t xml:space="preserve">FMC_LA21_P </t>
   </si>
   <si>
-    <t xml:space="preserve">GND D25 C25 GND</t>
+    <t xml:space="preserve">GND                     D25 C25 GND</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA21_N    H26 G26 GND</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA26_P D26 C26 FMC_LA27_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND H27 G27 FMC_LA25_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMC_LA26_N D27 C27 FMC_LA27_N</t>
+    <t xml:space="preserve">FMC_LA26_P     D26 C26 FMC_LA27_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND                   H27 G27 FMC_LA25_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA26_N     D27 C27 FMC_LA27_N</t>
   </si>
   <si>
     <t xml:space="preserve"> FMC_LA27_N</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA24_P H28 G28 FMC_LA25_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND D28 C28 GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMC_LA24_N H29 G29 GND</t>
+    <t xml:space="preserve">FMC_LA24_P    H28 G28 FMC_LA25_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND                     D28 C28 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA24_N    H29 G29 GND</t>
   </si>
   <si>
     <t xml:space="preserve">10k to VCC_3V3 D29 C29 GND</t>
   </si>
   <si>
-    <t xml:space="preserve">GND H30 G30 FMC_LA29_P</t>
+    <t xml:space="preserve">GND                   H30 G30 FMC_LA29_P</t>
   </si>
   <si>
     <t xml:space="preserve">10k to VCC_3V3 D30 C30 FMC_I2C_SCL</t>
@@ -1139,34 +1139,34 @@
     <t xml:space="preserve">FMC_I2C_SCL</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA28_P H31 G31 FMC_LA29_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Connected D31 C31 FMC_I2C_SDA</t>
+    <t xml:space="preserve">FMC_LA28_P   H31 G31 FMC_LA29_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Connected    D31 C31 FMC_I2C_SDA</t>
   </si>
   <si>
     <t xml:space="preserve"> FMC_I2C_SDA</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA28_N H32 G32 GND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCC_3V3 D32 C32 GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND H33 G33 FMC_LA31_P</t>
+    <t xml:space="preserve">FMC_LA28_N   H32 G32 GND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC_3V3              D32 C32 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND                    H33 G33 FMC_LA31_P</t>
   </si>
   <si>
     <t xml:space="preserve">10k to VCC_3V3 D33 C33 GND</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA30_P H34 G34 FMC_LA31_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k to GND D34 C34 10k to GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMC_LA30_N H35 G35 GND </t>
+    <t xml:space="preserve">FMC_LA30_P   H34 G34 FMC_LA31_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k to GND         D34 C34 10k to GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA30_N   H35 G35 GND </t>
   </si>
   <si>
     <t xml:space="preserve">10k to VCC_3V3 D35 C35 VCC_12V</t>
@@ -1175,37 +1175,37 @@
     <t xml:space="preserve"> VCC_12V</t>
   </si>
   <si>
-    <t xml:space="preserve">GND H36 G36 FMC_LA33_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCC_3V3 D36 C36 GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMC_LA32_P H37 G37 FMC_LA33_N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND D37 C37 VCC_12V</t>
+    <t xml:space="preserve">GND                  H36 G36 FMC_LA33_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC_3V3              D36 C36 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC_LA32_P   H37 G37 FMC_LA33_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND                      D37 C37 VCC_12V</t>
   </si>
   <si>
     <t xml:space="preserve">VCC_12V</t>
   </si>
   <si>
-    <t xml:space="preserve">FMC_LA32_N H38 G38 GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCC_3V3 D38 C38 GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND H39 G39 VCC_IO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND D39 C39 VCC_3V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCC_IO H40 G40 GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCC_3V3 D40 C40 GND</t>
+    <t xml:space="preserve">FMC_LA32_N  H38 G38 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC_3V3             D38 C38 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND                  H39 G39 VCC_IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND                     D39 C39 VCC_3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC_IO             H40 G40 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC_3V3             D40 C40 GND</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="1" sqref="F:F A31"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3884,8 +3884,8 @@
   </sheetPr>
   <dimension ref="D6:U45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O45" activeCellId="0" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3896,8 +3896,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="20.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="46.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="50.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="20" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.28"/>
@@ -4047,7 +4048,7 @@
       <c r="I13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="O13" s="22" t="s">
         <v>304</v>
       </c>
       <c r="P13" s="22" t="s">
@@ -4071,7 +4072,7 @@
       <c r="J14" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="O14" s="22" t="s">
         <v>308</v>
       </c>
       <c r="P14" s="22" t="s">
@@ -4122,7 +4123,7 @@
       <c r="I16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="O16" s="22" t="s">
         <v>315</v>
       </c>
       <c r="P16" s="22" t="s">
@@ -4149,7 +4150,7 @@
       <c r="I17" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="O17" s="22" t="s">
         <v>319</v>
       </c>
       <c r="P17" s="22" t="s">
@@ -4194,7 +4195,7 @@
       <c r="I19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="O19" s="22" t="s">
         <v>325</v>
       </c>
       <c r="P19" s="22" t="s">
@@ -4224,7 +4225,7 @@
       <c r="J20" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="O20" s="22" t="s">
         <v>330</v>
       </c>
       <c r="P20" s="22" t="s">

--- a/pcb/sram/pins.xlsx
+++ b/pcb/sram/pins.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="442">
   <si>
     <t xml:space="preserve">PM3</t>
   </si>
@@ -908,6 +908,9 @@
     <t xml:space="preserve">FMC_CLK0_M2C_P H4 G4 GND </t>
   </si>
   <si>
+    <t xml:space="preserve">H4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not Connected  D4 C4 GND</t>
   </si>
   <si>
@@ -920,6 +923,9 @@
     <t xml:space="preserve">GND                          H6 G6 FMC_LA00_CC_P </t>
   </si>
   <si>
+    <t xml:space="preserve">G6</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA00_CC_P </t>
   </si>
   <si>
@@ -929,6 +935,9 @@
     <t xml:space="preserve">FMC_LA02_P          H7 G7 FMC_LA00_CC_N</t>
   </si>
   <si>
+    <t xml:space="preserve">H7</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                    D7 C7 Not Connected</t>
   </si>
   <si>
@@ -941,9 +950,15 @@
     <t xml:space="preserve">FX3_DQ31</t>
   </si>
   <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                         H9 G9 FMC_LA03_P FX3_DQ28</t>
   </si>
   <si>
+    <t xml:space="preserve">G9</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ28</t>
   </si>
   <si>
@@ -953,15 +968,24 @@
     <t xml:space="preserve">FX3_DQ30</t>
   </si>
   <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA04_P         H10 G10 FMC_LA03_N FX3_DQ29 </t>
   </si>
   <si>
+    <t xml:space="preserve">H10</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ29</t>
   </si>
   <si>
     <t xml:space="preserve">GND                    D10 C10 FMC_LA06_P FX3_DQ24 </t>
   </si>
   <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ24 </t>
   </si>
   <si>
@@ -974,21 +998,36 @@
     <t xml:space="preserve">FX3_DQ25</t>
   </si>
   <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ27 </t>
   </si>
   <si>
     <t xml:space="preserve">GND                       H12 G12 FMC_LA08_P FX3_DQ21 </t>
   </si>
   <si>
+    <t xml:space="preserve">G12</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ26 FMC_LA05_N D12 C12 GND</t>
   </si>
   <si>
     <t xml:space="preserve">FX3_DQ26</t>
   </si>
   <si>
+    <t xml:space="preserve">D12</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA07_P       H13 G13 FMC_LA08_N FX3_DQ22 </t>
   </si>
   <si>
+    <t xml:space="preserve">H13</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ22</t>
   </si>
   <si>
@@ -1004,12 +1043,21 @@
     <t xml:space="preserve">FX3_DQ18 </t>
   </si>
   <si>
+    <t xml:space="preserve">D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ19</t>
   </si>
   <si>
     <t xml:space="preserve">GND                     H15 G15 FMC_LA12_P FX3_DQ20</t>
   </si>
   <si>
+    <t xml:space="preserve">G15</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ20</t>
   </si>
   <si>
@@ -1019,12 +1067,21 @@
     <t xml:space="preserve">FX3_DQ16</t>
   </si>
   <si>
+    <t xml:space="preserve">D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ23</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA11_P     H16 G16 FMC_LA12_N FX3_DQ17 </t>
   </si>
   <si>
+    <t xml:space="preserve">H16</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ17 </t>
   </si>
   <si>
@@ -1037,24 +1094,42 @@
     <t xml:space="preserve">FMC_LA13_P       D17 C17 GND</t>
   </si>
   <si>
+    <t xml:space="preserve">D17</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                    H18 G18 FMC_LA16_P</t>
   </si>
   <si>
+    <t xml:space="preserve">G18</t>
+  </si>
+  <si>
     <t xml:space="preserve"> FMC_LA16_P</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA13_N       D18 C18 FMC_LA14_P</t>
   </si>
   <si>
+    <t xml:space="preserve">D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA15_P     H19 G19 FMC_LA16_N </t>
   </si>
   <si>
+    <t xml:space="preserve">H19</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA16_N </t>
   </si>
   <si>
     <t xml:space="preserve">GND                       D19 C19 FMC_LA14_N</t>
   </si>
   <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA15_N    H20 G20 GND </t>
   </si>
   <si>
@@ -1067,39 +1142,69 @@
     <t xml:space="preserve">FMC_LA17_CC_P </t>
   </si>
   <si>
+    <t xml:space="preserve">D20</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                   H21 G21 FMC_LA20_P </t>
   </si>
   <si>
+    <t xml:space="preserve">G21</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA17_CC_N D21 C21 GND</t>
   </si>
   <si>
+    <t xml:space="preserve">D21</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA19_P    H22 G22 FMC_LA20_N </t>
   </si>
   <si>
+    <t xml:space="preserve">H22</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA20_N </t>
   </si>
   <si>
     <t xml:space="preserve">GND                       D22 C22 FMC_LA18_CC_P</t>
   </si>
   <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA19_N    H23 G23 GND</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA23_P       D23 C23 FMC_LA18_CC_N</t>
   </si>
   <si>
+    <t xml:space="preserve">D23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                    H24 G24 FMC_LA22_P</t>
   </si>
   <si>
+    <t xml:space="preserve">G24</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA23_N      D24 C24 GND </t>
   </si>
   <si>
+    <t xml:space="preserve">D24</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA21_P    H25 G25 FMC_LA22_N</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA21_P </t>
   </si>
   <si>
+    <t xml:space="preserve">H25</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                     D25 C25 GND</t>
   </si>
   <si>
@@ -1109,18 +1214,33 @@
     <t xml:space="preserve">FMC_LA26_P     D26 C26 FMC_LA27_P</t>
   </si>
   <si>
+    <t xml:space="preserve">D26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                   H27 G27 FMC_LA25_P</t>
   </si>
   <si>
+    <t xml:space="preserve">G27</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_LA26_N     D27 C27 FMC_LA27_N</t>
   </si>
   <si>
-    <t xml:space="preserve"> FMC_LA27_N</t>
+    <t xml:space="preserve">D27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA24_P    H28 G28 FMC_LA25_N</t>
   </si>
   <si>
+    <t xml:space="preserve">H28</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                     D28 C28 GND</t>
   </si>
   <si>
@@ -1133,6 +1253,9 @@
     <t xml:space="preserve">GND                   H30 G30 FMC_LA29_P</t>
   </si>
   <si>
+    <t xml:space="preserve">G30</t>
+  </si>
+  <si>
     <t xml:space="preserve">10k to VCC_3V3 D30 C30 FMC_I2C_SCL</t>
   </si>
   <si>
@@ -1142,10 +1265,13 @@
     <t xml:space="preserve">FMC_LA28_P   H31 G31 FMC_LA29_</t>
   </si>
   <si>
+    <t xml:space="preserve">H31</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not Connected    D31 C31 FMC_I2C_SDA</t>
   </si>
   <si>
-    <t xml:space="preserve"> FMC_I2C_SDA</t>
+    <t xml:space="preserve">FMC_I2C_SDA</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA28_N   H32 G32 GND </t>
@@ -1157,12 +1283,18 @@
     <t xml:space="preserve">GND                    H33 G33 FMC_LA31_P</t>
   </si>
   <si>
+    <t xml:space="preserve">G33</t>
+  </si>
+  <si>
     <t xml:space="preserve">10k to VCC_3V3 D33 C33 GND</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA30_P   H34 G34 FMC_LA31_N</t>
   </si>
   <si>
+    <t xml:space="preserve">H34</t>
+  </si>
+  <si>
     <t xml:space="preserve">10k to GND         D34 C34 10k to GND</t>
   </si>
   <si>
@@ -1178,12 +1310,18 @@
     <t xml:space="preserve">GND                  H36 G36 FMC_LA33_P</t>
   </si>
   <si>
+    <t xml:space="preserve">G36</t>
+  </si>
+  <si>
     <t xml:space="preserve">VCC_3V3              D36 C36 GND</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA32_P   H37 G37 FMC_LA33_N</t>
   </si>
   <si>
+    <t xml:space="preserve">H37</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                      D37 C37 VCC_12V</t>
   </si>
   <si>
@@ -1197,6 +1335,9 @@
   </si>
   <si>
     <t xml:space="preserve">GND                  H39 G39 VCC_IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G39</t>
   </si>
   <si>
     <t xml:space="preserve">GND                     D39 C39 VCC_3V3</t>
@@ -3884,16 +4025,16 @@
   </sheetPr>
   <dimension ref="D6:U45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O45" activeCellId="0" sqref="O45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T36" activeCellId="0" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="17.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="8.67"/>
@@ -3971,13 +4112,15 @@
       <c r="F9" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="21" t="s">
+        <v>295</v>
+      </c>
       <c r="H9" s="24"/>
       <c r="I9" s="22" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
@@ -3987,7 +4130,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>169</v>
@@ -3998,47 +4141,51 @@
         <v>4</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="21" t="s">
+        <v>300</v>
+      </c>
       <c r="I11" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="21" t="s">
+        <v>304</v>
+      </c>
       <c r="H12" s="24"/>
       <c r="I12" s="22" t="s">
         <v>126</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>124</v>
@@ -4049,71 +4196,81 @@
         <v>4</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="R13" s="25"/>
+      <c r="R13" s="23" t="s">
+        <v>309</v>
+      </c>
       <c r="S13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="21" t="s">
+        <v>311</v>
+      </c>
       <c r="I14" s="22" t="s">
         <v>130</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="R14" s="25"/>
+      <c r="R14" s="23" t="s">
+        <v>315</v>
+      </c>
       <c r="S14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="21" t="s">
+        <v>317</v>
+      </c>
       <c r="H15" s="24"/>
       <c r="I15" s="22" t="s">
         <v>134</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
+      <c r="S15" s="23" t="s">
+        <v>320</v>
+      </c>
       <c r="T15" s="22" t="s">
         <v>141</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>136</v>
@@ -4124,68 +4281,78 @@
         <v>4</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+      <c r="R16" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>326</v>
+      </c>
       <c r="T16" s="22" t="s">
         <v>145</v>
       </c>
       <c r="U16" s="22" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="21" t="s">
+        <v>329</v>
+      </c>
       <c r="I17" s="22" t="s">
         <v>159</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="R17" s="25"/>
+      <c r="R17" s="23" t="s">
+        <v>332</v>
+      </c>
       <c r="S17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="21" t="s">
+        <v>334</v>
+      </c>
       <c r="H18" s="24"/>
       <c r="I18" s="22" t="s">
         <v>163</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>152</v>
@@ -4196,70 +4363,82 @@
         <v>4</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="Q19" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
+      <c r="R19" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>341</v>
+      </c>
       <c r="T19" s="22" t="s">
         <v>167</v>
       </c>
       <c r="U19" s="22" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="21" t="s">
+        <v>344</v>
+      </c>
       <c r="I20" s="22" t="s">
         <v>173</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
+      <c r="R20" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>349</v>
+      </c>
       <c r="T20" s="22" t="s">
         <v>171</v>
       </c>
       <c r="U20" s="22" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="21" t="s">
+        <v>352</v>
+      </c>
       <c r="H21" s="24"/>
       <c r="I21" s="22" t="s">
         <v>177</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
@@ -4269,7 +4448,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>179</v>
@@ -4280,62 +4459,74 @@
         <v>4</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R22" s="25"/>
+      <c r="R22" s="23" t="s">
+        <v>357</v>
+      </c>
       <c r="S22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="21" t="s">
+        <v>359</v>
+      </c>
       <c r="I23" s="22" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
+      <c r="R23" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>363</v>
+      </c>
       <c r="T23" s="22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="21" t="s">
+        <v>365</v>
+      </c>
       <c r="H24" s="24"/>
       <c r="I24" s="22" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
+      <c r="S24" s="23" t="s">
+        <v>368</v>
+      </c>
       <c r="T24" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -4343,12 +4534,14 @@
         <v>4</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="R25" s="25"/>
+        <v>372</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>373</v>
+      </c>
       <c r="S25" s="25"/>
       <c r="T25" s="22" t="s">
         <v>4</v>
@@ -4356,20 +4549,24 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="21" t="s">
+        <v>375</v>
+      </c>
       <c r="I26" s="22" t="s">
         <v>61</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="Q26" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="25"/>
+      <c r="R26" s="23" t="s">
+        <v>377</v>
+      </c>
       <c r="S26" s="25"/>
       <c r="T26" s="22" t="s">
         <v>4</v>
@@ -4377,28 +4574,32 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="21" t="s">
+        <v>379</v>
+      </c>
       <c r="H27" s="24"/>
       <c r="I27" s="22" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
+      <c r="S27" s="23" t="s">
+        <v>382</v>
+      </c>
       <c r="T27" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>59</v>
@@ -4409,33 +4610,41 @@
         <v>4</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="Q28" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
+      <c r="R28" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="S28" s="23" t="s">
+        <v>386</v>
+      </c>
       <c r="T28" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="21" t="s">
+        <v>388</v>
+      </c>
       <c r="I29" s="22" t="s">
         <v>71</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="Q29" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="R29" s="25"/>
+      <c r="R29" s="23" t="s">
+        <v>390</v>
+      </c>
       <c r="S29" s="25"/>
       <c r="T29" s="22" t="s">
         <v>4</v>
@@ -4443,25 +4652,27 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="G30" s="24"/>
+        <v>392</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>393</v>
+      </c>
       <c r="H30" s="24"/>
       <c r="I30" s="22" t="s">
         <v>75</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>77</v>
@@ -4472,59 +4683,71 @@
         <v>4</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="Q31" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
+      <c r="R31" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>398</v>
+      </c>
       <c r="T31" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="H32" s="21" t="s">
+        <v>400</v>
+      </c>
       <c r="I32" s="22" t="s">
         <v>89</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
+      <c r="R32" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="S32" s="23" t="s">
+        <v>403</v>
+      </c>
       <c r="T32" s="22" t="s">
-        <v>364</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="21" t="s">
+        <v>405</v>
+      </c>
       <c r="H33" s="24"/>
       <c r="I33" s="22" t="s">
         <v>93</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>83</v>
@@ -4535,53 +4758,57 @@
         <v>4</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="H35" s="21" t="s">
+        <v>410</v>
+      </c>
       <c r="I35" s="22" t="s">
         <v>103</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="22" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="24"/>
+      <c r="G36" s="21" t="s">
+        <v>414</v>
+      </c>
       <c r="H36" s="24"/>
       <c r="I36" s="22" t="s">
         <v>107</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="22" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>99</v>
@@ -4592,7 +4819,7 @@
         <v>4</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="Q37" s="26" t="s">
         <v>279</v>
@@ -4602,40 +4829,44 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="H38" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="I38" s="22" t="s">
         <v>31</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="0" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="24"/>
+      <c r="G39" s="21" t="s">
+        <v>423</v>
+      </c>
       <c r="H39" s="24"/>
       <c r="I39" s="22" t="s">
         <v>35</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>115</v>
@@ -4646,53 +4877,57 @@
         <v>4</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="22" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="0" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="H41" s="21" t="s">
+        <v>429</v>
+      </c>
       <c r="I41" s="22" t="s">
         <v>33</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="24"/>
+      <c r="G42" s="21" t="s">
+        <v>432</v>
+      </c>
       <c r="H42" s="24"/>
       <c r="I42" s="22" t="s">
         <v>37</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="22" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>45</v>
@@ -4703,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="Q43" s="26" t="s">
         <v>279</v>
@@ -4713,15 +4948,17 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="H44" s="21" t="s">
+        <v>438</v>
+      </c>
       <c r="I44" s="22" t="s">
         <v>69</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
@@ -4731,7 +4968,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
@@ -4739,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="Q45" s="26" t="s">
         <v>279</v>

--- a/pcb/sram/pins.xlsx
+++ b/pcb/sram/pins.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="483">
   <si>
     <t xml:space="preserve">PM3</t>
   </si>
@@ -881,6 +881,12 @@
     <t xml:space="preserve">G1</t>
   </si>
   <si>
+    <t xml:space="preserve">Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top</t>
+  </si>
+  <si>
     <t xml:space="preserve">PGOOD_SYSTEM D1 C1 GND </t>
   </si>
   <si>
@@ -893,6 +899,9 @@
     <t xml:space="preserve">Not connected H2 G2 FMC_CLK1_M2C_P </t>
   </si>
   <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_CLK1_M2C_P </t>
   </si>
   <si>
@@ -902,6 +911,9 @@
     <t xml:space="preserve">GND                          H3 G3 FMC_CLK1_M2C_N</t>
   </si>
   <si>
+    <t xml:space="preserve">G3</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                     D3 C3 Not Connected </t>
   </si>
   <si>
@@ -917,6 +929,12 @@
     <t xml:space="preserve">FMC_CLK0_M2C_N H5 G5 GND</t>
   </si>
   <si>
+    <t xml:space="preserve">A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not Connected   D5 C5 GN</t>
   </si>
   <si>
@@ -929,6 +947,18 @@
     <t xml:space="preserve">FMC_LA00_CC_P </t>
   </si>
   <si>
+    <t xml:space="preserve">A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A18</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                    D6 C6 Not Connected</t>
   </si>
   <si>
@@ -938,12 +968,36 @@
     <t xml:space="preserve">H7</t>
   </si>
   <si>
+    <t xml:space="preserve">A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A17</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                    D7 C7 Not Connected</t>
   </si>
   <si>
     <t xml:space="preserve">FMC_LA02_N          H8 G8 GN</t>
   </si>
   <si>
+    <t xml:space="preserve">A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A16</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ31 FMC_LA01_CC_P D8 C8 GND</t>
   </si>
   <si>
@@ -962,6 +1016,18 @@
     <t xml:space="preserve">FX3_DQ28</t>
   </si>
   <si>
+    <t xml:space="preserve">A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A15</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ30 FMC_LA01_CC_N D9 C9 GND</t>
   </si>
   <si>
@@ -980,6 +1046,18 @@
     <t xml:space="preserve">FX3_DQ29</t>
   </si>
   <si>
+    <t xml:space="preserve">Wen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oen</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                    D10 C10 FMC_LA06_P FX3_DQ24 </t>
   </si>
   <si>
@@ -992,6 +1070,18 @@
     <t xml:space="preserve">FMC_LA04_N       H11 G11 GND </t>
   </si>
   <si>
+    <t xml:space="preserve">IO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO7</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ25 FMC_LA05_P D11 C11 FMC_LA06_N FX3_DQ27 </t>
   </si>
   <si>
@@ -1013,6 +1103,21 @@
     <t xml:space="preserve">G12</t>
   </si>
   <si>
+    <t xml:space="preserve">FX3_DQ21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO6</t>
+  </si>
+  <si>
     <t xml:space="preserve">FX3_DQ26 FMC_LA05_N D12 C12 GND</t>
   </si>
   <si>
@@ -1031,6 +1136,9 @@
     <t xml:space="preserve">FX3_DQ22</t>
   </si>
   <si>
+    <t xml:space="preserve">VDD</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                      D13 C13 GND</t>
   </si>
   <si>
@@ -1259,6 +1367,9 @@
     <t xml:space="preserve">10k to VCC_3V3 D30 C30 FMC_I2C_SCL</t>
   </si>
   <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_I2C_SCL</t>
   </si>
   <si>
@@ -1271,6 +1382,9 @@
     <t xml:space="preserve">Not Connected    D31 C31 FMC_I2C_SDA</t>
   </si>
   <si>
+    <t xml:space="preserve">C31</t>
+  </si>
+  <si>
     <t xml:space="preserve">FMC_I2C_SDA</t>
   </si>
   <si>
@@ -1334,6 +1448,9 @@
     <t xml:space="preserve">VCC_3V3             D38 C38 GND</t>
   </si>
   <si>
+    <t xml:space="preserve">D38</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND                  H39 G39 VCC_IO</t>
   </si>
   <si>
@@ -1343,10 +1460,16 @@
     <t xml:space="preserve">GND                     D39 C39 VCC_3V3</t>
   </si>
   <si>
+    <t xml:space="preserve">C39</t>
+  </si>
+  <si>
     <t xml:space="preserve">VCC_IO             H40 G40 GND</t>
   </si>
   <si>
     <t xml:space="preserve">VCC_3V3             D40 C40 GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D40</t>
   </si>
 </sst>
 </file>
@@ -1518,12 +1641,8 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1551,10 +1670,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1573,10 +1688,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1603,7 +1714,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1612,18 +1751,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1923,19 +2050,19 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1943,19 +2070,19 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1963,19 +2090,19 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1983,19 +2110,19 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2003,19 +2130,19 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2023,1931 +2150,1931 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="H13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="n">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="H16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="n">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="H19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="n">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="H22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="n">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="H24" s="13" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="A25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="A26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3" t="n">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="H32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3" t="n">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="5" t="s">
+      <c r="H42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="3" t="n">
         <v>78</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="F47" s="4" t="n">
+      <c r="F47" s="3" t="n">
         <v>82</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="n">
+      <c r="A48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="F48" s="4" t="n">
+      <c r="F48" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="F49" s="4" t="n">
+      <c r="F49" s="3" t="n">
         <v>86</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="F50" s="4" t="n">
+      <c r="F50" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" s="5" t="s">
+      <c r="H50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="F51" s="4" t="n">
+      <c r="F51" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="F52" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="F53" s="4" t="n">
+      <c r="F53" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3" t="n">
+      <c r="A54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="F54" s="4" t="n">
+      <c r="F54" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="F55" s="4" t="n">
+      <c r="F55" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="F56" s="4" t="n">
+      <c r="F56" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="5" t="s">
+      <c r="H56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="F57" s="4" t="n">
+      <c r="F57" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="F58" s="4" t="n">
+      <c r="F58" s="3" t="n">
         <v>104</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="F59" s="4" t="n">
+      <c r="F59" s="3" t="n">
         <v>106</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3" t="n">
+      <c r="A60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="F60" s="4" t="n">
+      <c r="F60" s="3" t="n">
         <v>108</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="F61" s="4" t="n">
+      <c r="F61" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="F62" s="4" t="n">
+      <c r="F62" s="3" t="n">
         <v>112</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="F63" s="4" t="n">
+      <c r="F63" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="F64" s="4" t="n">
+      <c r="F64" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J64" s="5" t="s">
+      <c r="H64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="F65" s="4" t="n">
+      <c r="F65" s="3" t="n">
         <v>118</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="F66" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="F67" s="4" t="n">
+      <c r="F67" s="3" t="n">
         <v>122</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="J67" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="F68" s="4" t="n">
+      <c r="F68" s="3" t="n">
         <v>124</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="F69" s="4" t="n">
+      <c r="F69" s="3" t="n">
         <v>126</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="3" t="n">
+      <c r="A70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="F70" s="4" t="n">
+      <c r="F70" s="3" t="n">
         <v>128</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="F71" s="4" t="n">
+      <c r="F71" s="3" t="n">
         <v>130</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="F72" s="4" t="n">
+      <c r="F72" s="3" t="n">
         <v>132</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J72" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="F73" s="4" t="n">
+      <c r="F73" s="3" t="n">
         <v>134</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="F74" s="4" t="n">
+      <c r="F74" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="H74" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J74" s="5" t="s">
+      <c r="H74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="F75" s="4" t="n">
+      <c r="F75" s="3" t="n">
         <v>138</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="F76" s="4" t="n">
+      <c r="F76" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="F77" s="4" t="n">
+      <c r="F77" s="3" t="n">
         <v>142</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="F78" s="4" t="n">
+      <c r="F78" s="3" t="n">
         <v>144</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="F79" s="4" t="n">
+      <c r="F79" s="3" t="n">
         <v>146</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="3" t="n">
+      <c r="A80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="F80" s="4" t="n">
+      <c r="F80" s="3" t="n">
         <v>148</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="F81" s="4" t="n">
+      <c r="F81" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="F82" s="4" t="n">
+      <c r="F82" s="3" t="n">
         <v>152</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="F83" s="4" t="n">
+      <c r="F83" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="F84" s="4" t="n">
+      <c r="F84" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="H84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J84" s="5" t="s">
+      <c r="H84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="3" t="n">
+      <c r="A85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="F85" s="4" t="n">
+      <c r="F85" s="3" t="n">
         <v>158</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="F86" s="4" t="n">
+      <c r="F86" s="3" t="n">
         <v>160</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="F87" s="4" t="n">
+      <c r="F87" s="3" t="n">
         <v>162</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J87" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E88" s="3" t="n">
+      <c r="E88" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="F88" s="4" t="n">
+      <c r="F88" s="3" t="n">
         <v>164</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="E89" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="F89" s="4" t="n">
+      <c r="F89" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="3" t="n">
+      <c r="A90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="F90" s="4" t="n">
+      <c r="F90" s="3" t="n">
         <v>168</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E91" s="3" t="n">
+      <c r="E91" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="F91" s="4" t="n">
+      <c r="F91" s="3" t="n">
         <v>170</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="E92" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="F92" s="4" t="n">
+      <c r="F92" s="3" t="n">
         <v>172</v>
       </c>
-      <c r="H92" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J92" s="5" t="s">
+      <c r="H92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="F93" s="4" t="n">
+      <c r="F93" s="3" t="n">
         <v>174</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E94" s="3" t="n">
+      <c r="E94" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="F94" s="4" t="n">
+      <c r="F94" s="3" t="n">
         <v>176</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E95" s="3" t="n">
+      <c r="E95" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="F95" s="4" t="n">
+      <c r="F95" s="3" t="n">
         <v>178</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E96" s="3" t="n">
+      <c r="E96" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="F96" s="4" t="n">
+      <c r="F96" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="H96" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J96" s="5" t="s">
+      <c r="H96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="F97" s="4" t="n">
+      <c r="F97" s="3" t="n">
         <v>182</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="F98" s="4" t="n">
+      <c r="F98" s="3" t="n">
         <v>184</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="F99" s="4" t="n">
+      <c r="F99" s="3" t="n">
         <v>186</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="E100" s="16" t="n">
+      <c r="E100" s="13" t="n">
         <v>187</v>
       </c>
-      <c r="F100" s="17" t="n">
+      <c r="F100" s="14" t="n">
         <v>188</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E101" s="16" t="n">
+      <c r="E101" s="13" t="n">
         <v>189</v>
       </c>
-      <c r="F101" s="17" t="n">
+      <c r="F101" s="14" t="n">
         <v>190</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="H101" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="6" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E102" s="16" t="n">
+      <c r="E102" s="13" t="n">
         <v>191</v>
       </c>
-      <c r="F102" s="17" t="n">
+      <c r="F102" s="14" t="n">
         <v>192</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E103" s="16" t="n">
+      <c r="E103" s="13" t="n">
         <v>193</v>
       </c>
-      <c r="F103" s="17" t="n">
+      <c r="F103" s="14" t="n">
         <v>194</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="16" t="n">
+      <c r="A104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="13" t="n">
         <v>195</v>
       </c>
-      <c r="F104" s="17" t="n">
+      <c r="F104" s="14" t="n">
         <v>196</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="J104" s="7" t="s">
+      <c r="J104" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="E105" s="16" t="n">
+      <c r="E105" s="13" t="n">
         <v>197</v>
       </c>
-      <c r="F105" s="17" t="n">
+      <c r="F105" s="14" t="n">
         <v>198</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="E106" s="16" t="n">
+      <c r="E106" s="13" t="n">
         <v>199</v>
       </c>
-      <c r="F106" s="17" t="n">
+      <c r="F106" s="14" t="n">
         <v>200</v>
       </c>
-      <c r="H106" s="19" t="s">
+      <c r="H106" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="J106" s="19" t="s">
+      <c r="J106" s="16" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4023,10 +4150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D6:U45"/>
+  <dimension ref="D6:AC75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T36" activeCellId="0" sqref="T36"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4034,955 +4161,1536 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="17.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="50.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="20" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="18" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="50.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="17" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="I6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="S6" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="U6" s="0"/>
+      <c r="W6" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="Z6" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB6" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="O7" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="W7" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
+      <c r="M8" s="22" t="n">
+        <v>22</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>23</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="F9" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="22" t="s">
+      <c r="G9" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="22" t="n">
+        <v>21</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>24</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="S9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="M10" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="R10" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+        <v>305</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="M11" s="22" t="n">
+        <v>19</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="22" t="s">
+      <c r="G12" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="O12" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
+      <c r="L12" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="M12" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="N12" s="22" t="n">
+        <v>27</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="F13" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q13" s="26" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="M13" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="N13" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="W13" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y13" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="R13" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="S13" s="25"/>
+      <c r="Z13" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="I14" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q14" s="26" t="s">
+      <c r="J14" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="M14" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="N14" s="22" t="n">
+        <v>29</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="W14" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="X14" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y14" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="R14" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="S14" s="25"/>
+      <c r="Z14" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="F15" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="22" t="s">
+      <c r="G15" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="T15" s="22" t="s">
+      <c r="J15" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="M15" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="N15" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB15" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="U15" s="22" t="s">
-        <v>321</v>
+      <c r="AC15" s="20" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="F16" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q16" s="26" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="M16" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" s="22" t="n">
+        <v>31</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="W16" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="X16" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y16" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="R16" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="T16" s="22" t="s">
+      <c r="Z16" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB16" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="U16" s="22" t="s">
-        <v>327</v>
+      <c r="AC16" s="20" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="I17" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="O17" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q17" s="26" t="s">
+      <c r="J17" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="M17" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="N17" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="W17" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="X17" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y17" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="R17" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="S17" s="25"/>
+      <c r="Z17" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="F18" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="22" t="s">
+      <c r="G18" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J18" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
+      <c r="J18" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="N18" s="22" t="n">
+        <v>33</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="F19" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q19" s="26" t="s">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="M19" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y19" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="R19" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="T19" s="22" t="s">
+      <c r="Z19" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA19" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB19" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="U19" s="22" t="s">
-        <v>342</v>
+      <c r="AC19" s="20" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="I20" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="J20" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q20" s="26" t="s">
+      <c r="J20" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="M20" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>35</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="W20" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="X20" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y20" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="R20" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="T20" s="22" t="s">
+      <c r="Z20" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA20" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB20" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="U20" s="22" t="s">
-        <v>350</v>
+      <c r="AC20" s="20" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="M21" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="N21" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="O21" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="22" t="s">
+      <c r="R21" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="F22" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q22" s="26" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="M22" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="N22" s="22" t="n">
+        <v>37</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y22" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="R22" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="S22" s="25"/>
+      <c r="Z22" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q23" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="M23" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>38</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y23" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="R23" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="S23" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="T23" s="22" t="s">
+      <c r="Z23" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA23" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB23" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="F24" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="R24" s="25"/>
-      <c r="S24" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="T24" s="22" t="s">
+      <c r="G24" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="M24" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>39</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB24" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q25" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="R25" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="S25" s="25"/>
-      <c r="T25" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="M25" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>40</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y25" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z25" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="I26" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q26" s="26" t="s">
+      <c r="L26" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="M26" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>41</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y26" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="S26" s="25"/>
-      <c r="T26" s="22" t="s">
+      <c r="Z26" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="F27" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="R27" s="25"/>
-      <c r="S27" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="T27" s="22" t="s">
+      <c r="G27" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="M27" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="O27" s="18"/>
+      <c r="R27" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB27" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="F28" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q28" s="26" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>43</v>
+      </c>
+      <c r="O28" s="18"/>
+      <c r="S28" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y28" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="R28" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="S28" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="T28" s="22" t="s">
+      <c r="Z28" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA28" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB28" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="I29" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="I29" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O29" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q29" s="26" t="s">
+      <c r="M29" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="22" t="n">
+        <v>44</v>
+      </c>
+      <c r="O29" s="18"/>
+      <c r="S29" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="R29" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="22" t="s">
+      <c r="Z29" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O30" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
+      <c r="W30" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="F31" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q31" s="26" t="s">
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y31" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="R31" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="S31" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="T31" s="22" t="s">
+      <c r="Z31" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA31" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB31" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="I32" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="I32" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O32" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q32" s="26" t="s">
+      <c r="W32" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y32" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="R32" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="S32" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="T32" s="22" t="s">
+      <c r="Z32" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA32" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="AB32" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="F33" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="22" t="s">
+      <c r="G33" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O33" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
+      <c r="W33" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="F34" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="I35" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="I35" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O35" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="22" t="s">
-        <v>412</v>
+      <c r="W35" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB35" s="20" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="F36" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="22" t="s">
+      <c r="G36" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="O36" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="22" t="s">
-        <v>416</v>
+      <c r="W36" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB36" s="20" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="F37" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q37" s="26" t="s">
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y37" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="I38" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="I38" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O38" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
+      <c r="W38" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="F39" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="F39" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="22" t="s">
+      <c r="G39" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
+      <c r="W39" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F40" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="22" t="s">
-        <v>427</v>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="20" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="I41" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="I41" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="O41" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
+      <c r="W41" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="F42" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="22" t="s">
+      <c r="G42" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O42" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="22" t="s">
-        <v>434</v>
+      <c r="W42" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="20" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="F43" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q43" s="26" t="s">
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y43" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
+      <c r="Z43" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="I44" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="I44" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O44" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="22" t="s">
+      <c r="W44" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB44" s="20" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q45" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y45" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
+      <c r="Z45" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA45" s="24"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="U60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="U61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="U63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="U66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="U67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U75" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
